--- a/data_base3.xlsx
+++ b/data_base3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>names</t>
   </si>
@@ -33,13 +33,22 @@
     <t>j</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -357,37 +366,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -397,8 +424,17 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -408,16 +444,34 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
